--- a/numerologie_bednar_jan.xlsx
+++ b/numerologie_bednar_jan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="19"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="orv - osobní roční vibrace" sheetId="1" state="visible" r:id="rId2"/>
@@ -613,7 +613,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="1318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="1321">
   <si>
     <t xml:space="preserve">Změna každý rok.</t>
   </si>
@@ -1723,6 +1723,15 @@
   </si>
   <si>
     <t xml:space="preserve">Výklad vibračních čísel:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c</t>
   </si>
   <si>
     <t xml:space="preserve">Výklad vibračního čísla součtu jména a příjmení – 1 archetyp Slunce</t>
@@ -4632,7 +4641,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -4697,17 +4706,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCE181E"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4806,7 +4804,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4971,11 +4969,15 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4983,11 +4985,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5071,7 +5073,7 @@
   <dimension ref="A1:CW77"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
+      <selection pane="topLeft" activeCell="M2" activeCellId="1" sqref="V25 M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5922,8 +5924,8 @@
   </sheetPr>
   <dimension ref="A1:Z157"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A113" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A142" activeCellId="1" sqref="V25 A142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5933,22 +5935,22 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F3" s="0" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6107,7 +6109,7 @@
         <v>362</v>
       </c>
       <c r="L12" s="24" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="M12" s="24"/>
       <c r="N12" s="24"/>
@@ -6146,7 +6148,7 @@
       <c r="J13" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="L13" s="42" t="n">
+      <c r="L13" s="24" t="n">
         <v>3</v>
       </c>
       <c r="M13" s="24" t="n">
@@ -6268,7 +6270,7 @@
         <v>358</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>357</v>
@@ -6295,7 +6297,7 @@
         <v>367</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="P18" s="1" t="s">
         <v>357</v>
@@ -6315,19 +6317,19 @@
     <row r="20" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="21" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="1" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>360</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>362</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>367</v>
@@ -6336,7 +6338,7 @@
         <v>362</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>357</v>
@@ -6345,7 +6347,7 @@
         <v>358</v>
       </c>
       <c r="M21" s="24" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="N21" s="24"/>
       <c r="O21" s="24"/>
@@ -6381,7 +6383,7 @@
       <c r="K22" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="M22" s="42" t="n">
+      <c r="M22" s="24" t="n">
         <v>3</v>
       </c>
       <c r="N22" s="24" t="n">
@@ -6392,386 +6394,386 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
     </row>
     <row r="54" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="32" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
     </row>
     <row r="55" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="32" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
     </row>
     <row r="56" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="57" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="32" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
     </row>
     <row r="58" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="59" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="32" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
     </row>
     <row r="60" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="61" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="32" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
     </row>
     <row r="62" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="63" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="32" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
     </row>
     <row r="64" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="65" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="32" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
     </row>
     <row r="66" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="67" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="32" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
     </row>
     <row r="99" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="32" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
     </row>
     <row r="100" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="32" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
     </row>
     <row r="101" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="102" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="32" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
     </row>
     <row r="103" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="104" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="32" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
     </row>
     <row r="105" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="106" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="32" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
     </row>
     <row r="107" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="108" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="32" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
     </row>
     <row r="109" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="110" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="32" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
     </row>
     <row r="111" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="112" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="32" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
     </row>
     <row r="114" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="32" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
     </row>
     <row r="115" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="32" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
     </row>
     <row r="116" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="117" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="32" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
     </row>
     <row r="118" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="119" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="32" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
     </row>
     <row r="120" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="121" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="32" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
     </row>
     <row r="122" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="123" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="32" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
     </row>
     <row r="124" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="125" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="32" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
     </row>
     <row r="126" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="127" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="32" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
     </row>
     <row r="129" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="32" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
     </row>
     <row r="130" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="43" t="s">
-        <v>742</v>
+      <c r="A130" s="44" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="131" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="132" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="32" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
     </row>
     <row r="133" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="134" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="32" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
     </row>
     <row r="135" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="136" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="32" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
     </row>
     <row r="137" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="138" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="32" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
     </row>
     <row r="139" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="140" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="32" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
     </row>
     <row r="141" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="142" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="32" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
     </row>
   </sheetData>
@@ -6792,8 +6794,8 @@
   </sheetPr>
   <dimension ref="A1:R72"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G6" activeCellId="1" sqref="V25 G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6803,105 +6805,105 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6982,382 +6984,382 @@
       <c r="R23" s="13"/>
     </row>
     <row r="24" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="44" t="s">
-        <v>776</v>
-      </c>
-      <c r="B24" s="44" t="s">
-        <v>777</v>
-      </c>
-      <c r="C24" s="44" t="s">
-        <v>778</v>
-      </c>
-      <c r="D24" s="44" t="s">
+      <c r="A24" s="45" t="s">
         <v>779</v>
       </c>
-      <c r="E24" s="44" t="s">
+      <c r="B24" s="45" t="s">
         <v>780</v>
       </c>
+      <c r="C24" s="45" t="s">
+        <v>781</v>
+      </c>
+      <c r="D24" s="45" t="s">
+        <v>782</v>
+      </c>
+      <c r="E24" s="45" t="s">
+        <v>783</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="44" t="n">
+      <c r="A25" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="B25" s="44" t="s">
-        <v>781</v>
-      </c>
-      <c r="C25" s="44" t="s">
-        <v>782</v>
-      </c>
-      <c r="D25" s="44" t="s">
-        <v>783</v>
-      </c>
-      <c r="E25" s="44" t="s">
+      <c r="B25" s="45" t="s">
         <v>784</v>
       </c>
+      <c r="C25" s="45" t="s">
+        <v>785</v>
+      </c>
+      <c r="D25" s="45" t="s">
+        <v>786</v>
+      </c>
+      <c r="E25" s="45" t="s">
+        <v>787</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="44" t="n">
+      <c r="A26" s="45" t="n">
         <v>2</v>
       </c>
-      <c r="B26" s="44" t="s">
-        <v>785</v>
-      </c>
-      <c r="C26" s="44" t="s">
-        <v>786</v>
-      </c>
-      <c r="D26" s="44" t="s">
-        <v>787</v>
-      </c>
-      <c r="E26" s="44" t="s">
+      <c r="B26" s="45" t="s">
         <v>788</v>
       </c>
+      <c r="C26" s="45" t="s">
+        <v>789</v>
+      </c>
+      <c r="D26" s="45" t="s">
+        <v>790</v>
+      </c>
+      <c r="E26" s="45" t="s">
+        <v>791</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="44" t="n">
+      <c r="A27" s="45" t="n">
         <v>3</v>
       </c>
-      <c r="B27" s="44" t="s">
-        <v>789</v>
-      </c>
-      <c r="C27" s="44" t="s">
-        <v>790</v>
-      </c>
-      <c r="D27" s="44" t="s">
-        <v>791</v>
-      </c>
-      <c r="E27" s="44" t="s">
+      <c r="B27" s="45" t="s">
         <v>792</v>
       </c>
+      <c r="C27" s="45" t="s">
+        <v>793</v>
+      </c>
+      <c r="D27" s="45" t="s">
+        <v>794</v>
+      </c>
+      <c r="E27" s="45" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="44" t="n">
+      <c r="A28" s="45" t="n">
         <v>4</v>
       </c>
-      <c r="B28" s="44" t="s">
-        <v>793</v>
-      </c>
-      <c r="C28" s="44" t="s">
-        <v>794</v>
-      </c>
-      <c r="D28" s="44" t="s">
-        <v>795</v>
-      </c>
-      <c r="E28" s="44" t="s">
+      <c r="B28" s="45" t="s">
         <v>796</v>
       </c>
+      <c r="C28" s="45" t="s">
+        <v>797</v>
+      </c>
+      <c r="D28" s="45" t="s">
+        <v>798</v>
+      </c>
+      <c r="E28" s="45" t="s">
+        <v>799</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="44" t="n">
+      <c r="A29" s="45" t="n">
         <v>5</v>
       </c>
-      <c r="B29" s="44" t="s">
-        <v>797</v>
-      </c>
-      <c r="C29" s="44" t="s">
-        <v>798</v>
-      </c>
-      <c r="D29" s="44" t="s">
-        <v>799</v>
-      </c>
-      <c r="E29" s="44" t="s">
+      <c r="B29" s="45" t="s">
         <v>800</v>
       </c>
+      <c r="C29" s="45" t="s">
+        <v>801</v>
+      </c>
+      <c r="D29" s="45" t="s">
+        <v>802</v>
+      </c>
+      <c r="E29" s="45" t="s">
+        <v>803</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="44" t="n">
+      <c r="A30" s="45" t="n">
         <v>6</v>
       </c>
-      <c r="B30" s="44" t="s">
-        <v>801</v>
-      </c>
-      <c r="C30" s="44" t="s">
-        <v>802</v>
-      </c>
-      <c r="D30" s="44" t="s">
-        <v>803</v>
-      </c>
-      <c r="E30" s="44" t="s">
+      <c r="B30" s="45" t="s">
         <v>804</v>
       </c>
+      <c r="C30" s="45" t="s">
+        <v>805</v>
+      </c>
+      <c r="D30" s="45" t="s">
+        <v>806</v>
+      </c>
+      <c r="E30" s="45" t="s">
+        <v>807</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="44" t="n">
+      <c r="A31" s="45" t="n">
         <v>7</v>
       </c>
-      <c r="B31" s="44" t="s">
-        <v>805</v>
-      </c>
-      <c r="C31" s="44" t="s">
-        <v>806</v>
-      </c>
-      <c r="D31" s="44" t="s">
-        <v>807</v>
-      </c>
-      <c r="E31" s="44" t="s">
+      <c r="B31" s="45" t="s">
         <v>808</v>
       </c>
+      <c r="C31" s="45" t="s">
+        <v>809</v>
+      </c>
+      <c r="D31" s="45" t="s">
+        <v>810</v>
+      </c>
+      <c r="E31" s="45" t="s">
+        <v>811</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="44" t="n">
+      <c r="A32" s="45" t="n">
         <v>8</v>
       </c>
-      <c r="B32" s="44" t="s">
-        <v>809</v>
-      </c>
-      <c r="C32" s="44" t="s">
-        <v>810</v>
-      </c>
-      <c r="D32" s="44" t="s">
-        <v>811</v>
-      </c>
-      <c r="E32" s="44" t="s">
+      <c r="B32" s="45" t="s">
         <v>812</v>
       </c>
+      <c r="C32" s="45" t="s">
+        <v>813</v>
+      </c>
+      <c r="D32" s="45" t="s">
+        <v>814</v>
+      </c>
+      <c r="E32" s="45" t="s">
+        <v>815</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="44" t="n">
+      <c r="A33" s="45" t="n">
         <v>9</v>
       </c>
-      <c r="B33" s="44" t="s">
-        <v>813</v>
-      </c>
-      <c r="C33" s="44" t="s">
-        <v>814</v>
-      </c>
-      <c r="D33" s="44" t="s">
-        <v>815</v>
-      </c>
-      <c r="E33" s="44" t="s">
+      <c r="B33" s="45" t="s">
         <v>816</v>
       </c>
+      <c r="C33" s="45" t="s">
+        <v>817</v>
+      </c>
+      <c r="D33" s="45" t="s">
+        <v>818</v>
+      </c>
+      <c r="E33" s="45" t="s">
+        <v>819</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="44" t="s">
-        <v>817</v>
-      </c>
-      <c r="B34" s="44" t="s">
-        <v>818</v>
-      </c>
-      <c r="C34" s="44" t="s">
-        <v>819</v>
-      </c>
-      <c r="D34" s="44" t="s">
+      <c r="A34" s="45" t="s">
         <v>820</v>
       </c>
-      <c r="E34" s="44" t="s">
+      <c r="B34" s="45" t="s">
         <v>821</v>
       </c>
+      <c r="C34" s="45" t="s">
+        <v>822</v>
+      </c>
+      <c r="D34" s="45" t="s">
+        <v>823</v>
+      </c>
+      <c r="E34" s="45" t="s">
+        <v>824</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="45"/>
-      <c r="B35" s="45"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
+      <c r="A35" s="46"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
     </row>
   </sheetData>
@@ -7380,7 +7382,7 @@
   <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="V25 F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7390,32 +7392,32 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F2" s="0" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7495,7 +7497,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
+      <selection pane="topLeft" activeCell="A27" activeCellId="1" sqref="V25 A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7505,125 +7507,125 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
     </row>
   </sheetData>
@@ -7644,8 +7646,8 @@
   </sheetPr>
   <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A63" activeCellId="0" sqref="A63"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A63" activeCellId="1" sqref="V25 A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7655,10 +7657,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7666,55 +7668,55 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="17" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D17" s="17" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>18</v>
@@ -7741,28 +7743,28 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="17" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>18</v>
@@ -7789,17 +7791,17 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="H27" s="0" t="n">
         <f aca="false">I18</f>
@@ -7816,28 +7818,28 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="G32" s="0" t="n">
         <v>1</v>
@@ -7864,107 +7866,107 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
     </row>
     <row r="38" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="32" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
     </row>
     <row r="39" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="32" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
     </row>
     <row r="62" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="32" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
     </row>
     <row r="63" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="32" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
     </row>
   </sheetData>
@@ -7986,7 +7988,7 @@
   <dimension ref="A1:R73"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+      <selection pane="topLeft" activeCell="A23" activeCellId="1" sqref="V25 A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7996,32 +7998,32 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F1" s="0" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8083,155 +8085,155 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
     </row>
     <row r="17" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="32" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
     </row>
     <row r="18" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="19" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="32" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
     </row>
     <row r="20" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="21" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="32" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
     </row>
     <row r="22" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="23" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="32" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
     </row>
   </sheetData>
@@ -8254,7 +8256,7 @@
   <dimension ref="A1:D178"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="V25 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8264,710 +8266,710 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>968</v>
+        <v>971</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>976</v>
+        <v>979</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>984</v>
+        <v>987</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>985</v>
+        <v>988</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>1000</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>1002</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>1004</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>1006</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>1007</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>1010</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>1021</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>1022</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>1023</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>1024</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>1025</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>1027</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>1028</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>1029</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>1031</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>1033</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>1034</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>1037</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>1042</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>1043</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>1046</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>1047</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>1048</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>1049</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>1050</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>1051</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>1052</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>1053</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>1054</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>1055</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>1056</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>1057</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>1058</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>1059</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>1060</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>1061</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>1062</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>1063</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>1064</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>1065</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>1066</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>1072</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>1074</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>1075</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>1076</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>1077</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>1078</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>1079</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>1080</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>1081</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>1082</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>1084</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>1086</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>1088</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>1089</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>1090</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>1091</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>1092</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>1093</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>1094</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>1095</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>1096</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>1097</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>1098</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>1099</v>
+        <v>1102</v>
       </c>
     </row>
   </sheetData>
@@ -8988,8 +8990,8 @@
   </sheetPr>
   <dimension ref="A1:E212"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="1" sqref="V25 A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8999,877 +9001,877 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E1" s="0" t="s">
-        <v>1100</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1101</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>1102</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>1103</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>1104</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>1105</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>1106</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>1107</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>1109</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>1110</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>1111</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>1112</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>1113</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>1114</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>1115</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>1116</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>1117</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>1118</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>1120</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>1121</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>1122</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>1124</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>1126</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>1127</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>1128</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>1129</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>1130</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>1131</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>1133</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>1134</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>1135</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>1136</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>1137</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>1138</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>1139</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>1140</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>1141</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>1142</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>1144</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>1145</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>1146</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>1147</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>1148</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>1149</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>1150</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>1151</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>1152</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>1153</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>1154</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>1155</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>1156</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>1157</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>1158</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>1159</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>1160</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>1161</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>1162</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>1163</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>1164</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>1166</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>1167</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>1168</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>1169</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>1170</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>1171</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>1172</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>1173</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>1174</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>1175</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>1176</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>1177</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>1178</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>1179</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>1180</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>1181</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>1182</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>1183</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>1184</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>1185</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>1186</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>1187</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>1188</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>1189</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>1190</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>1191</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>1192</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>1193</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>1194</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>1195</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>1196</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>1197</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>1198</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>1199</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>1200</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>1201</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>1202</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>1203</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>1204</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>1205</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>1206</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>1207</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>1208</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>1209</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>1210</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>1211</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>1212</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>1213</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>1214</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>1215</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>1216</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>1217</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>1218</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>1219</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>1220</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>1221</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>1222</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>1223</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>1224</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>1225</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>1227</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>1228</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>1229</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>1230</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>1231</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>1232</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>1233</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>1234</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>1235</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>1236</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>1237</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>1238</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>1239</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>1240</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>1241</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>1242</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>1243</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>1244</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>1245</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>1246</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>1247</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>1248</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>1249</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>1250</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>1251</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>1252</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>1253</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>1254</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>1255</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>1256</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>1257</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>1258</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>1259</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>1260</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>1261</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>1262</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>1263</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>1264</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>1265</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>1266</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>1267</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>1268</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>1269</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>1270</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>1271</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>1272</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>1273</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>1274</v>
+        <v>1277</v>
       </c>
     </row>
   </sheetData>
@@ -9891,7 +9893,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="topLeft" activeCell="I1" activeCellId="1" sqref="V25 I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9901,135 +9903,135 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>1276</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>1277</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>1278</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>1279</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>1280</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>1281</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>1282</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>1283</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>1284</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>1285</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>1286</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>1287</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>1288</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>1289</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>1290</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>1291</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>1292</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>1293</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>1294</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>1295</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>1296</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>1297</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>1298</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>1299</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>1300</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>1301</v>
+        <v>1304</v>
       </c>
     </row>
   </sheetData>
@@ -10051,7 +10053,7 @@
   <dimension ref="D1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="V25 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10061,7 +10063,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D1" s="0" t="s">
-        <v>1302</v>
+        <v>1305</v>
       </c>
     </row>
   </sheetData>
@@ -10082,8 +10084,8 @@
   </sheetPr>
   <dimension ref="A1:J127"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C78" activeCellId="0" sqref="C78"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C78" activeCellId="1" sqref="V25 C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10504,8 +10506,8 @@
   </sheetPr>
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="V25 F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10515,77 +10517,77 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F1" s="0" t="s">
-        <v>1303</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>1304</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>1305</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>1306</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>1308</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>1309</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>1310</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>1311</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>1312</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>1313</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>1314</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>1315</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>1316</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>1317</v>
+        <v>1320</v>
       </c>
     </row>
   </sheetData>
@@ -10607,7 +10609,7 @@
   <dimension ref="A1:J109"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
+      <selection pane="topLeft" activeCell="A30" activeCellId="1" sqref="V25 A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10974,7 +10976,7 @@
   <dimension ref="A1:G136"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A123" activeCellId="0" sqref="A123"/>
+      <selection pane="topLeft" activeCell="A123" activeCellId="1" sqref="V25 A123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11452,7 +11454,7 @@
   <dimension ref="A1:Y90"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J73" activeCellId="0" sqref="J73"/>
+      <selection pane="topLeft" activeCell="J73" activeCellId="1" sqref="V25 J73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11856,10 +11858,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S54"/>
+  <dimension ref="A1:Y59"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V25" activeCellId="0" sqref="V25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12213,40 +12215,240 @@
       <c r="A20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>352</v>
+      <c r="A21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="R21" s="0" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="1"/>
+      <c r="E22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I22" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J22" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="K22" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="L22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="N22" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="O22" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="P22" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q22" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" s="1" t="n">
+        <f aca="false">SUM(E22:R22)</f>
+        <v>59</v>
+      </c>
+      <c r="T22" s="42" t="str">
+        <f aca="false">LEFT(S22,1)</f>
+        <v>5</v>
+      </c>
+      <c r="U22" s="43" t="str">
+        <f aca="false">RIGHT(S22,1)</f>
+        <v>9</v>
+      </c>
+      <c r="V22" s="41" t="n">
+        <f aca="false">T22+U22</f>
+        <v>14</v>
+      </c>
+      <c r="W22" s="42" t="str">
+        <f aca="false">LEFT(V22,1)</f>
+        <v>1</v>
+      </c>
+      <c r="X22" s="43" t="str">
+        <f aca="false">RIGHT(V22,1)</f>
+        <v>4</v>
+      </c>
+      <c r="Y22" s="24" t="n">
+        <f aca="false">W22+X22</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="N24" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
+      <c r="O24" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="P24" s="1" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>372</v>
-      </c>
+      <c r="Q24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1"/>
+      <c r="E25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H25" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I25" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J25" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="K25" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="L25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="N25" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="O25" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="P25" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1" t="n">
+        <f aca="false">SUM(E25:R25)</f>
+        <v>54</v>
+      </c>
+      <c r="T25" s="42" t="str">
+        <f aca="false">LEFT(S25,1)</f>
+        <v>5</v>
+      </c>
+      <c r="U25" s="43" t="str">
+        <f aca="false">RIGHT(S25,1)</f>
+        <v>4</v>
+      </c>
+      <c r="V25" s="24" t="n">
+        <f aca="false">T25+U25</f>
+        <v>9</v>
+      </c>
+      <c r="W25" s="42"/>
+      <c r="X25" s="43"/>
+      <c r="Y25" s="24"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
@@ -12254,12 +12456,12 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="1"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
@@ -12267,12 +12469,12 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="1"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
@@ -12280,64 +12482,64 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="1"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1"/>
-    </row>
-    <row r="38" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="24" t="s">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="39" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="24" t="s">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1"/>
+    </row>
+    <row r="40" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="24" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
+    <row r="41" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="24" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="1"/>
+    </row>
+    <row r="43" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="24" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
+    <row r="44" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="24" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="1"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1"/>
-    </row>
-    <row r="47" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="24" t="s">
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="48" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="24" t="s">
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
@@ -12345,21 +12547,42 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="1"/>
+    </row>
+    <row r="52" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="24" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1"/>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="s">
+    <row r="53" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="24" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="1"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
         <v>392</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -12381,7 +12604,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="1" sqref="V25 D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12391,122 +12614,122 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D4" s="0" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="35" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="17" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="17" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="17" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="17" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="17" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="17" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="17" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="17" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="17" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -12528,7 +12751,7 @@
   <dimension ref="A1:O55"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="1" sqref="V25 D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12538,27 +12761,27 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="17" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D4" s="0" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12605,167 +12828,167 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="15" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="32" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="16" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="32" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
     </row>
   </sheetData>
@@ -12787,8 +13010,8 @@
   </sheetPr>
   <dimension ref="A1:K223"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A217" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A24" activeCellId="1" sqref="V25 A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12798,22 +13021,22 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>320</v>
@@ -12821,30 +13044,30 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>1</v>
@@ -12854,10 +13077,10 @@
       </c>
       <c r="G9" s="0"/>
       <c r="H9" s="1" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="J9" s="0" t="n">
         <f aca="false">F9+F10</f>
@@ -12869,7 +13092,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>361</v>
@@ -12882,10 +13105,10 @@
       </c>
       <c r="G10" s="0"/>
       <c r="H10" s="1" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="J10" s="0" t="n">
         <f aca="false">F10+F11</f>
@@ -12897,7 +13120,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>362</v>
@@ -12914,1052 +13137,1052 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
     </row>
   </sheetData>
